--- a/Oplevering MkII/Projectdocumentatie/Urenregistratie Sybren.xlsx
+++ b/Oplevering MkII/Projectdocumentatie/Urenregistratie Sybren.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sybren\Desktop\git\Oplevering\Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sybren\Desktop\git\Oplevering MkII\Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E12E2BD9-6F0F-4C15-8FCE-64D2A23CF6B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0E20E35-F000-47D6-8B7F-98215B2E05BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" xr2:uid="{1273F704-7EDE-4E6A-A655-399478B98C3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{1273F704-7EDE-4E6A-A655-399478B98C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Wat gedaan?</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Wilco helpen met voorraad bijwerken / ERD verslag maken</t>
+  </si>
+  <si>
+    <t>Risicoanalyse Ddos stuk af / ERD met toelichting afmaken / website optimaliseren voor demo / voorraad checken als medewerker toevoegen</t>
+  </si>
+  <si>
+    <t>Verslagen nakijken / verbeteren</t>
   </si>
 </sst>
 </file>
@@ -497,18 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBDD919-52D2-46B5-A4AA-5951EBF926E7}">
-  <dimension ref="B4:G40"/>
+  <dimension ref="B4:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -519,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>43360</v>
       </c>
@@ -530,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>43369</v>
       </c>
@@ -541,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>43374</v>
       </c>
@@ -552,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>43375</v>
       </c>
@@ -563,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>43381</v>
       </c>
@@ -574,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>43385</v>
       </c>
@@ -585,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>43389</v>
       </c>
@@ -596,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>43402</v>
       </c>
@@ -607,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>43403</v>
       </c>
@@ -618,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>43404</v>
       </c>
@@ -629,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>43406</v>
       </c>
@@ -640,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>43410</v>
       </c>
@@ -651,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>43411</v>
       </c>
@@ -662,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>43413</v>
       </c>
@@ -673,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>43415</v>
       </c>
@@ -684,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>43416</v>
       </c>
@@ -695,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>43418</v>
       </c>
@@ -706,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>43419</v>
       </c>
@@ -717,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>43423</v>
       </c>
@@ -728,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>43424</v>
       </c>
@@ -739,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>43425</v>
       </c>
@@ -750,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>43426</v>
       </c>
@@ -758,10 +764,10 @@
         <v>24</v>
       </c>
       <c r="G27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>43427</v>
       </c>
@@ -772,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>43428</v>
       </c>
@@ -783,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>43429</v>
       </c>
@@ -794,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>43430</v>
       </c>
@@ -805,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>43431</v>
       </c>
@@ -816,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>43432</v>
       </c>
@@ -827,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>43433</v>
       </c>
@@ -838,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>43434</v>
       </c>
@@ -849,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>43436</v>
       </c>
@@ -860,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>43437</v>
       </c>
@@ -871,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>43438</v>
       </c>
@@ -882,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>43439</v>
       </c>
@@ -893,10 +899,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>43440</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
       <c r="G40">
-        <f>SUM(G6:G39)</f>
-        <v>138</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>43441</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>43443</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f>SUM(G6:G45)</f>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
